--- a/PocketNurseTest/SampleRequest1.xlsx
+++ b/PocketNurseTest/SampleRequest1.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Simulation\Miranda\Omnicell requests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccaannburton/Projects/PocketNurse/PocketNurseTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DFA05A49-0856-C543-A0C1-B1395007C931}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="156" windowWidth="22992" windowHeight="9528" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="23000" windowHeight="9520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Patient Information" sheetId="1" r:id="rId1"/>
-    <sheet name="Med Order Information" sheetId="2" r:id="rId2"/>
-    <sheet name="Items not in PN formulary" sheetId="3" r:id="rId3"/>
+    <sheet name="Session" sheetId="4" r:id="rId1"/>
+    <sheet name="Patient Information" sheetId="1" r:id="rId2"/>
+    <sheet name="Med Order Information" sheetId="2" r:id="rId3"/>
+    <sheet name="Items not in PN formulary" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Patient First Name</t>
   </si>
@@ -147,12 +149,33 @@
   </si>
   <si>
     <t>ondansetron</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Madison</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,11 +227,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -302,6 +326,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -337,6 +378,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,22 +570,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A910568-28D3-FF46-AA0D-B66B4AE7533A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43221.458333333336</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -564,7 +669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -586,23 +691,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.44140625" customWidth="1"/>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -622,7 +725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8221632</v>
       </c>
@@ -633,7 +736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -653,7 +756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>8221631</v>
       </c>
@@ -664,7 +767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -684,7 +787,7 @@
         <v>5896417</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -704,7 +807,7 @@
         <v>5896417</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -730,21 +833,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="A2:H2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" customWidth="1"/>
+    <col min="7" max="7" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -770,7 +871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>

--- a/PocketNurseTest/SampleRequest1.xlsx
+++ b/PocketNurseTest/SampleRequest1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccaannburton/Projects/PocketNurse/PocketNurseTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccaannburton/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DFA05A49-0856-C543-A0C1-B1395007C931}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2D819672-0C7F-0342-8085-0F4A9EEF506F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="460" windowWidth="23000" windowHeight="9520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>Patient First Name</t>
   </si>
@@ -151,31 +151,34 @@
     <t>ondansetron</t>
   </si>
   <si>
-    <t>Session</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
     <t>Wisconsin</t>
   </si>
   <si>
-    <t>Madison</t>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>SVR</t>
+  </si>
+  <si>
+    <t>Console</t>
+  </si>
+  <si>
+    <t>Omni ID</t>
+  </si>
+  <si>
+    <t>Omnicell</t>
+  </si>
+  <si>
+    <t>Site ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,12 +230,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,40 +578,40 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>43221.458333333336</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
